--- a/Rest API 명세서.xlsx
+++ b/Rest API 명세서.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\mini project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2096905-2237-4AE7-AC07-AF9BFFAFB1FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C01CB98C-E75A-41D0-A301-6D3A3F94E93F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8655" yWindow="1725" windowWidth="25395" windowHeight="12615" xr2:uid="{E5F5EA49-ED42-4FDB-A8EF-8B05996FEA55}"/>
+    <workbookView xWindow="14955" yWindow="1740" windowWidth="15405" windowHeight="12615" xr2:uid="{E5F5EA49-ED42-4FDB-A8EF-8B05996FEA55}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
   <si>
     <t>Rest API 명세서</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -144,11 +144,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>메인 홈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/index</t>
+    <t>/restaurants</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>식당 데이터</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -349,6 +349,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -356,33 +383,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -702,7 +702,7 @@
   <dimension ref="B1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -715,176 +715,178 @@
   <sheetData>
     <row r="1" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="3"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="12"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="4">
+      <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="6" t="s">
+      <c r="F4" s="2"/>
+      <c r="G4" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="4">
+      <c r="B5" s="1">
         <v>2</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="6" t="s">
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="4">
+      <c r="B6" s="1">
         <v>3</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="6" t="s">
+      <c r="F6" s="2"/>
+      <c r="G6" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="4">
+      <c r="B7" s="1">
         <v>4</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="6" t="s">
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="4">
+      <c r="B8" s="1">
         <v>5</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="6" t="s">
+      <c r="F8" s="2"/>
+      <c r="G8" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="4">
+      <c r="B9" s="1">
         <v>6</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="6" t="s">
+      <c r="F9" s="2"/>
+      <c r="G9" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="4">
+      <c r="B10" s="1">
         <v>7</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="6" t="s">
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="4">
+      <c r="B11" s="1">
         <v>8</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5" t="s">
+      <c r="C11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="6" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="12" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="9"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Rest API 명세서.xlsx
+++ b/Rest API 명세서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\mini project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C01CB98C-E75A-41D0-A301-6D3A3F94E93F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE27F21-6BF4-47CC-9210-2C835AC562BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14955" yWindow="1740" windowWidth="15405" windowHeight="12615" xr2:uid="{E5F5EA49-ED42-4FDB-A8EF-8B05996FEA55}"/>
+    <workbookView xWindow="7860" yWindow="885" windowWidth="19650" windowHeight="12615" xr2:uid="{E5F5EA49-ED42-4FDB-A8EF-8B05996FEA55}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
   <si>
     <t>Rest API 명세서</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -149,6 +149,18 @@
   </si>
   <si>
     <t>식당 데이터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/restaurants/{city}/{city_gu}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>city/city_gu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>식당 데이터 검색</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -702,18 +714,20 @@
   <dimension ref="B1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="2.625" customWidth="1"/>
     <col min="2" max="3" width="12.625" customWidth="1"/>
-    <col min="4" max="4" width="15.875" customWidth="1"/>
+    <col min="4" max="4" width="25.125" customWidth="1"/>
     <col min="5" max="5" width="18.75" customWidth="1"/>
-    <col min="6" max="7" width="12.625" customWidth="1"/>
+    <col min="6" max="6" width="12.625" customWidth="1"/>
+    <col min="7" max="7" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1" spans="2:7" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="10" t="s">
         <v>0</v>
@@ -881,12 +895,22 @@
       </c>
     </row>
     <row r="12" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
+      <c r="B12" s="4">
+        <v>9</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="F12" s="5"/>
-      <c r="G12" s="6"/>
+      <c r="G12" s="6" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Rest API 명세서.xlsx
+++ b/Rest API 명세서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\mini project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE27F21-6BF4-47CC-9210-2C835AC562BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B61FEFB6-9075-4E41-9B68-0A08C16C038E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7860" yWindow="885" windowWidth="19650" windowHeight="12615" xr2:uid="{E5F5EA49-ED42-4FDB-A8EF-8B05996FEA55}"/>
+    <workbookView xWindow="5625" yWindow="2070" windowWidth="19650" windowHeight="12615" xr2:uid="{E5F5EA49-ED42-4FDB-A8EF-8B05996FEA55}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
   <si>
     <t>Rest API 명세서</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -161,6 +161,14 @@
   </si>
   <si>
     <t>식당 데이터 검색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/cities</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시/구 데이터 검색</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -208,7 +216,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -351,13 +359,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -395,6 +436,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -711,10 +761,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A33DE573-546D-41D2-8DF6-62D93825729B}">
-  <dimension ref="B1:G12"/>
+  <dimension ref="B1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="G18" sqref="G18:G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -894,23 +944,51 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="4">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="1">
         <v>9</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="6" t="s">
+      <c r="F12" s="2"/>
+      <c r="G12" s="3" t="s">
         <v>31</v>
       </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B13" s="13">
+        <v>10</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="4">
+        <v>11</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Rest API 명세서.xlsx
+++ b/Rest API 명세서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\mini project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B61FEFB6-9075-4E41-9B68-0A08C16C038E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C7127F9-EE38-4D38-8B35-4AB9C905FBDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5625" yWindow="2070" windowWidth="19650" windowHeight="12615" xr2:uid="{E5F5EA49-ED42-4FDB-A8EF-8B05996FEA55}"/>
+    <workbookView xWindow="6165" yWindow="1590" windowWidth="19650" windowHeight="12615" xr2:uid="{E5F5EA49-ED42-4FDB-A8EF-8B05996FEA55}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -88,10 +88,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>로그아웃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/create</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -169,6 +165,10 @@
   </si>
   <si>
     <t>시/구 데이터 검색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그아웃/백엔드에서 불필요/ 프론트엔드에서 토큰 삭제</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -429,6 +429,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -436,15 +445,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -764,7 +764,7 @@
   <dimension ref="B1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18:G19"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -779,14 +779,14 @@
   <sheetData>
     <row r="1" spans="2:7" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="12"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="15"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
@@ -839,7 +839,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="3" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
@@ -850,14 +850,14 @@
         <v>7</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
@@ -868,12 +868,12 @@
         <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
@@ -884,14 +884,14 @@
         <v>7</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
@@ -902,14 +902,14 @@
         <v>7</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
@@ -920,12 +920,12 @@
         <v>11</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
@@ -936,12 +936,12 @@
         <v>11</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
@@ -952,30 +952,30 @@
         <v>11</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B13" s="10">
+        <v>10</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="11" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="13">
-        <v>10</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="14" t="s">
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="12" t="s">
         <v>32</v>
-      </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="15" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">

--- a/Rest API 명세서.xlsx
+++ b/Rest API 명세서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\mini project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C7127F9-EE38-4D38-8B35-4AB9C905FBDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF468909-23E8-4B37-88CD-1072AE8A88F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6165" yWindow="1590" windowWidth="19650" windowHeight="12615" xr2:uid="{E5F5EA49-ED42-4FDB-A8EF-8B05996FEA55}"/>
+    <workbookView xWindow="4200" yWindow="2415" windowWidth="19650" windowHeight="12615" xr2:uid="{E5F5EA49-ED42-4FDB-A8EF-8B05996FEA55}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
   <si>
     <t>Rest API 명세서</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,14 +84,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/logout</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/create</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>id/password/name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -169,6 +161,10 @@
   </si>
   <si>
     <t>로그아웃/백엔드에서 불필요/ 프론트엔드에서 토큰 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/register</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -176,7 +172,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,6 +197,14 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -216,7 +220,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -392,13 +396,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -445,6 +486,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -764,7 +820,7 @@
   <dimension ref="B1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -833,14 +889,12 @@
       <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="3" t="s">
-        <v>33</v>
-      </c>
+      <c r="D5" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="17"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
@@ -850,82 +904,82 @@
         <v>7</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <v>4</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="3" t="s">
-        <v>17</v>
+      <c r="D7" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="20" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
         <v>5</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="3" t="s">
-        <v>22</v>
+      <c r="D8" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
         <v>6</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="3" t="s">
-        <v>23</v>
+      <c r="D9" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <v>7</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="3" t="s">
-        <v>25</v>
+      <c r="D10" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
@@ -936,12 +990,12 @@
         <v>11</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
@@ -952,14 +1006,14 @@
         <v>11</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
@@ -970,12 +1024,12 @@
         <v>11</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
       <c r="G13" s="12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -991,8 +1045,9 @@
       <c r="G14" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B2:G2"/>
+    <mergeCell ref="D5:G5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Rest API 명세서.xlsx
+++ b/Rest API 명세서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\mini project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF468909-23E8-4B37-88CD-1072AE8A88F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FFDAB38-4E5A-4973-A892-56C06ED523DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4200" yWindow="2415" windowWidth="19650" windowHeight="12615" xr2:uid="{E5F5EA49-ED42-4FDB-A8EF-8B05996FEA55}"/>
+    <workbookView xWindow="810" yWindow="2370" windowWidth="19650" windowHeight="12615" xr2:uid="{E5F5EA49-ED42-4FDB-A8EF-8B05996FEA55}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
   <si>
     <t>Rest API 명세서</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,10 +84,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>id/password/name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>회원가입</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -112,10 +108,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>title/name/content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>게시글 등록</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -165,6 +157,26 @@
   </si>
   <si>
     <t>/register</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/insertReview</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>restId/reviewScore/nickname/content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>modal(리뷰)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title/nickname/content/review</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id/password/name/nickname</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -172,7 +184,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,6 +217,13 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -220,7 +239,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -433,13 +452,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -479,6 +537,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -491,16 +555,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -820,31 +896,31 @@
   <dimension ref="B1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="2.625" customWidth="1"/>
     <col min="2" max="3" width="12.625" customWidth="1"/>
     <col min="4" max="4" width="25.125" customWidth="1"/>
-    <col min="5" max="5" width="18.75" customWidth="1"/>
+    <col min="5" max="5" width="23.875" customWidth="1"/>
     <col min="6" max="6" width="12.625" customWidth="1"/>
     <col min="7" max="7" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="13" t="s">
+    <row r="1" spans="2:7" ht="12.75" customHeight="1" thickBot="1"/>
+    <row r="2" spans="2:7" ht="33.75" customHeight="1">
+      <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="15"/>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="17"/>
+    </row>
+    <row r="3" spans="2:7">
       <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
@@ -864,7 +940,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7">
       <c r="B4" s="1">
         <v>1</v>
       </c>
@@ -882,21 +958,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7">
       <c r="B5" s="1">
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="17"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D5" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20"/>
+    </row>
+    <row r="6" spans="2:7">
       <c r="B6" s="1">
         <v>3</v>
       </c>
@@ -904,85 +980,85 @@
         <v>7</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="24"/>
+      <c r="G6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="2:7">
       <c r="B7" s="1">
         <v>4</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="2:7">
       <c r="B8" s="1">
         <v>5</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D8" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="24"/>
+      <c r="G8" s="22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
       <c r="B9" s="1">
         <v>6</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="19" t="s">
+      <c r="D9" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E9" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="13"/>
+      <c r="G9" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
       <c r="B10" s="1">
         <v>7</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D10" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
       <c r="B11" s="1">
         <v>8</v>
       </c>
@@ -990,15 +1066,15 @@
         <v>11</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
       <c r="B12" s="1">
         <v>9</v>
       </c>
@@ -1006,17 +1082,17 @@
         <v>11</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
       <c r="B13" s="10">
         <v>10</v>
       </c>
@@ -1024,30 +1100,39 @@
         <v>11</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
       <c r="G13" s="12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="17.25" thickBot="1">
       <c r="B14" s="4">
         <v>11</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="6"/>
+      <c r="D14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="26"/>
+      <c r="G14" s="6" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="5">
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="D5:G5"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E6:F6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Rest API 명세서.xlsx
+++ b/Rest API 명세서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\mini project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FFDAB38-4E5A-4973-A892-56C06ED523DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4851794B-8097-446C-9241-8479239A08D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="2370" windowWidth="19650" windowHeight="12615" xr2:uid="{E5F5EA49-ED42-4FDB-A8EF-8B05996FEA55}"/>
+    <workbookView xWindow="6240" yWindow="2010" windowWidth="19650" windowHeight="12615" xr2:uid="{E5F5EA49-ED42-4FDB-A8EF-8B05996FEA55}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
   <si>
     <t>Rest API 명세서</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -177,6 +177,18 @@
   </si>
   <si>
     <t>id/password/name/nickname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>restId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/getBoardList/{restId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>modal(리뷰 게시판)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -239,7 +251,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -465,39 +477,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -543,6 +529,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -561,22 +553,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -893,10 +876,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A33DE573-546D-41D2-8DF6-62D93825729B}">
-  <dimension ref="B1:G14"/>
+  <dimension ref="B1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -911,14 +894,14 @@
   <sheetData>
     <row r="1" spans="2:7" ht="12.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="2:7" ht="33.75" customHeight="1">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="17"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="19"/>
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="7" t="s">
@@ -965,12 +948,12 @@
       <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="20"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="22"/>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="1">
@@ -982,7 +965,7 @@
       <c r="D6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="20" t="s">
         <v>35</v>
       </c>
       <c r="F6" s="24"/>
@@ -994,15 +977,15 @@
       <c r="B7" s="1">
         <v>4</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="22" t="s">
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="16" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1010,17 +993,17 @@
       <c r="B8" s="1">
         <v>5</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="15" t="s">
         <v>15</v>
       </c>
       <c r="E8" s="23" t="s">
         <v>34</v>
       </c>
       <c r="F8" s="24"/>
-      <c r="G8" s="22" t="s">
+      <c r="G8" s="16" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1108,22 +1091,40 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B14" s="4">
+    <row r="14" spans="2:7">
+      <c r="B14" s="1">
         <v>11</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="25" t="s">
+      <c r="E14" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="26"/>
-      <c r="G14" s="6" t="s">
+      <c r="F14" s="24"/>
+      <c r="G14" s="3" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="17.25" thickBot="1">
+      <c r="B15" s="4">
+        <v>12</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1131,8 +1132,8 @@
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="D5:G5"/>
     <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E6:F6"/>
     <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E6:F6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Rest API 명세서.xlsx
+++ b/Rest API 명세서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\mini project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4851794B-8097-446C-9241-8479239A08D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F1EF225-E915-43F2-BE52-C3ECBF7EF2EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6240" yWindow="2010" windowWidth="19650" windowHeight="12615" xr2:uid="{E5F5EA49-ED42-4FDB-A8EF-8B05996FEA55}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="41">
   <si>
     <t>Rest API 명세서</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -189,6 +189,14 @@
   </si>
   <si>
     <t>modal(리뷰 게시판)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/allmembers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AllMembers 정보</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -251,7 +259,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -477,13 +485,74 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -535,6 +604,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -559,7 +631,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -876,10 +960,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A33DE573-546D-41D2-8DF6-62D93825729B}">
-  <dimension ref="B1:G15"/>
+  <dimension ref="B1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -894,14 +978,14 @@
   <sheetData>
     <row r="1" spans="2:7" ht="12.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="2:7" ht="33.75" customHeight="1">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="20"/>
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="7" t="s">
@@ -948,12 +1032,12 @@
       <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="23"/>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="1">
@@ -965,10 +1049,10 @@
       <c r="D6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="24"/>
+      <c r="F6" s="25"/>
       <c r="G6" s="3" t="s">
         <v>12</v>
       </c>
@@ -999,10 +1083,10 @@
       <c r="D8" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="24"/>
+      <c r="F8" s="25"/>
       <c r="G8" s="16" t="s">
         <v>18</v>
       </c>
@@ -1101,29 +1185,45 @@
       <c r="D14" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="E14" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="24"/>
+      <c r="F14" s="25"/>
       <c r="G14" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B15" s="4">
+    <row r="15" spans="2:7">
+      <c r="B15" s="26">
         <v>12</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="28"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="30" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="17.25" thickBot="1">
+      <c r="B16" s="4">
+        <v>13</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E16" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="6" t="s">
+      <c r="F16" s="5"/>
+      <c r="G16" s="6" t="s">
         <v>38</v>
       </c>
     </row>

--- a/Rest API 명세서.xlsx
+++ b/Rest API 명세서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\mini project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F1EF225-E915-43F2-BE52-C3ECBF7EF2EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{884804FD-14D5-40B9-A837-F8E38BFDB431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6240" yWindow="2010" windowWidth="19650" windowHeight="12615" xr2:uid="{E5F5EA49-ED42-4FDB-A8EF-8B05996FEA55}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
   <si>
     <t>Rest API 명세서</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -197,6 +197,22 @@
   </si>
   <si>
     <t>AllMembers 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/deleteReview/{id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(review)id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Review삭제</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -607,6 +623,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -629,21 +660,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -960,10 +976,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A33DE573-546D-41D2-8DF6-62D93825729B}">
-  <dimension ref="B1:G16"/>
+  <dimension ref="B1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -978,14 +994,14 @@
   <sheetData>
     <row r="1" spans="2:7" ht="12.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="2:7" ht="33.75" customHeight="1">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="20"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="25"/>
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="7" t="s">
@@ -1032,12 +1048,12 @@
       <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="23"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="28"/>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="1">
@@ -1049,10 +1065,10 @@
       <c r="D6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="25"/>
+      <c r="F6" s="30"/>
       <c r="G6" s="3" t="s">
         <v>12</v>
       </c>
@@ -1083,10 +1099,10 @@
       <c r="D8" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="25"/>
+      <c r="F8" s="30"/>
       <c r="G8" s="16" t="s">
         <v>18</v>
       </c>
@@ -1185,45 +1201,63 @@
       <c r="D14" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="E14" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="25"/>
+      <c r="F14" s="30"/>
       <c r="G14" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="26">
+      <c r="B15" s="18">
         <v>12</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="27" t="s">
+      <c r="D15" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="28"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="30" t="s">
+      <c r="E15" s="20"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="22" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B16" s="4">
+    <row r="16" spans="2:7">
+      <c r="B16" s="18">
         <v>13</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="21"/>
+      <c r="G16" s="22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="17.25" thickBot="1">
+      <c r="B17" s="4">
+        <v>14</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D17" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E17" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="6" t="s">
+      <c r="F17" s="5"/>
+      <c r="G17" s="6" t="s">
         <v>38</v>
       </c>
     </row>

--- a/Rest API 명세서.xlsx
+++ b/Rest API 명세서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\mini project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{884804FD-14D5-40B9-A837-F8E38BFDB431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B25BFA54-B4DF-4159-A748-F3582B527A05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6240" yWindow="2010" windowWidth="19650" windowHeight="12615" xr2:uid="{E5F5EA49-ED42-4FDB-A8EF-8B05996FEA55}"/>
+    <workbookView xWindow="7545" yWindow="1140" windowWidth="19650" windowHeight="12615" xr2:uid="{E5F5EA49-ED42-4FDB-A8EF-8B05996FEA55}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="55">
   <si>
     <t>Rest API 명세서</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -116,14 +116,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/deleteBoard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시글 삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/restaurants</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -213,6 +205,54 @@
   </si>
   <si>
     <t>Review삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/deleteBoard/{seq}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(Board)seq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Board 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/insertComment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seq/nickname/content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/getCommentList/{seq}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 리스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(Comment)id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/deleteComment/{id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comment삭제</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -568,7 +608,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -581,9 +621,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -620,9 +657,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -661,6 +695,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -976,10 +1028,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A33DE573-546D-41D2-8DF6-62D93825729B}">
-  <dimension ref="B1:G17"/>
+  <dimension ref="B1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -994,32 +1046,32 @@
   <sheetData>
     <row r="1" spans="2:7" ht="12.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="2:7" ht="33.75" customHeight="1">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="25"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="23"/>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="8" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1048,12 +1100,12 @@
       <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="28"/>
+      <c r="D5" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="26"/>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="1">
@@ -1063,12 +1115,12 @@
         <v>7</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="30"/>
+        <v>28</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="28"/>
       <c r="G6" s="3" t="s">
         <v>12</v>
       </c>
@@ -1077,15 +1129,15 @@
       <c r="B7" s="1">
         <v>4</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="16" t="s">
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="15" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1093,17 +1145,17 @@
       <c r="B8" s="1">
         <v>5</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="30"/>
-      <c r="G8" s="16" t="s">
+      <c r="E8" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="28"/>
+      <c r="G8" s="15" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1111,17 +1163,17 @@
       <c r="B9" s="1">
         <v>6</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="14" t="s">
+      <c r="F9" s="12"/>
+      <c r="G9" s="13" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1129,16 +1181,18 @@
       <c r="B10" s="1">
         <v>7</v>
       </c>
-      <c r="C10" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="14" t="s">
-        <v>21</v>
+      <c r="C10" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="2:7">
@@ -1149,12 +1203,12 @@
         <v>11</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="2:7">
@@ -1165,30 +1219,30 @@
         <v>11</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="9">
+        <v>10</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="11" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7">
-      <c r="B13" s="10">
-        <v>10</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="12" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="14" spans="2:7">
@@ -1199,70 +1253,125 @@
         <v>7</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="28"/>
+      <c r="G14" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="30"/>
-      <c r="G14" s="3" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="18">
+      <c r="B15" s="16">
         <v>12</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="18"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="16">
+        <v>13</v>
+      </c>
+      <c r="C16" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="20"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="22" t="s">
+      <c r="D16" s="17" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="16" spans="2:7">
-      <c r="B16" s="18">
-        <v>13</v>
-      </c>
-      <c r="C16" s="19" t="s">
+      <c r="E16" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="F16" s="19"/>
+      <c r="G16" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="F16" s="21"/>
-      <c r="G16" s="22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B17" s="4">
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="1">
         <v>14</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" s="5" t="s">
+      <c r="D17" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="6" t="s">
-        <v>38</v>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="29">
+        <v>15</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="31"/>
+      <c r="G18" s="32" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="29">
+        <v>16</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" s="34"/>
+      <c r="G19" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="17.25" thickBot="1">
+      <c r="B20" s="33">
+        <v>17</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="E18:F18"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="D5:G5"/>
     <mergeCell ref="E8:F8"/>
